--- a/projetinhosPython/WebScrapping/Dados/comparaPrecos.xlsx
+++ b/projetinhosPython/WebScrapping/Dados/comparaPrecos.xlsx
@@ -440,7 +440,7 @@
         <v>799</v>
       </c>
       <c r="B1" t="n">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="C1">
         <f>A1-B1</f>
